--- a/xlsForms/Encuesta 6 Manufactura.xlsx
+++ b/xlsForms/Encuesta 6 Manufactura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97940A81-84D3-4AB8-B25B-80469635FF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35BC3FA-1F93-4580-A429-BF3BD79F32E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="289">
   <si>
     <t>type</t>
   </si>
@@ -873,13 +873,34 @@
   </si>
   <si>
     <t>manufac</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +913,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -914,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -937,11 +965,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -957,6 +996,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1302,7 @@
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,8 +1330,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1338,12 +1387,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +1417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1396,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1430,12 +1479,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1495,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2504,6 +2553,57 @@
       <c r="A80" t="s">
         <v>120</v>
       </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="J82" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
